--- a/xlsx/阿巴拉契亚山脉_intext.xlsx
+++ b/xlsx/阿巴拉契亚山脉_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="374">
   <si>
     <t>阿巴拉契亚山脉</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%83%A8%E6%A3%89%E5%B0%BE%E5%85%94</t>
   </si>
   <si>
-    <t>東部棉尾兔</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_阿巴拉契亚山脉</t>
+    <t>东部棉尾兔</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_阿巴拉契亚山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%B0%BE%E9%B9%BF</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%9D%E9%B9%BF</t>
   </si>
   <si>
-    <t>駝鹿</t>
+    <t>驼鹿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8A%A0%E6%8B%BF%E5%A4%A7%E7%8B%BC</t>
   </si>
   <si>
-    <t>東加拿大狼</t>
+    <t>东加拿大狼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B1%B1%E7%8D%85</t>
   </si>
   <si>
-    <t>北美山獅</t>
+    <t>北美山狮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E9%BB%91%E7%86%8A</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8E%E7%94%9F%E7%81%AB%E9%9B%9E</t>
   </si>
   <si>
-    <t>野生火雞</t>
+    <t>野生火鸡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%B1%B1%E5%B1%B1%E8%84%88_(%E6%96%B0%E7%BD%95%E5%B8%83%E5%A4%8F%E5%B7%9E)</t>
   </si>
   <si>
-    <t>白山山脈 (新罕布夏州)</t>
+    <t>白山山脉 (新罕布夏州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%B6%BA%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>藍嶺山脈</t>
+    <t>蓝岭山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%AC%AC%E5%80%AB%E9%81%94%E5%85%8B%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>阿第倫達克山脈</t>
+    <t>阿第伦达克山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9C%B0%E7%9B%BE</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿巴拉契亞</t>
+    <t>阿巴拉契亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -671,13 +671,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -689,13 +689,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -707,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -773,13 +773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -815,13 +815,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -917,15 +917,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -989,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1043,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1079,19 +1076,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1103,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -1121,7 +1118,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -5860,7 +5857,7 @@
         <v>301</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5886,10 +5883,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
         <v>303</v>
-      </c>
-      <c r="F152" t="s">
-        <v>304</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5915,10 +5912,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
         <v>305</v>
-      </c>
-      <c r="F153" t="s">
-        <v>306</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5944,10 +5941,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>306</v>
+      </c>
+      <c r="F154" t="s">
         <v>307</v>
-      </c>
-      <c r="F154" t="s">
-        <v>308</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5973,10 +5970,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
         <v>309</v>
-      </c>
-      <c r="F155" t="s">
-        <v>310</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6002,10 +5999,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
         <v>311</v>
-      </c>
-      <c r="F156" t="s">
-        <v>312</v>
       </c>
       <c r="G156" t="n">
         <v>4</v>
@@ -6031,10 +6028,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
         <v>313</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6060,10 +6057,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
         <v>315</v>
-      </c>
-      <c r="F158" t="s">
-        <v>316</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6089,10 +6086,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>316</v>
+      </c>
+      <c r="F159" t="s">
         <v>317</v>
-      </c>
-      <c r="F159" t="s">
-        <v>318</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6118,10 +6115,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>318</v>
+      </c>
+      <c r="F160" t="s">
         <v>319</v>
-      </c>
-      <c r="F160" t="s">
-        <v>320</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6147,10 +6144,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>320</v>
+      </c>
+      <c r="F161" t="s">
         <v>321</v>
-      </c>
-      <c r="F161" t="s">
-        <v>322</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6176,10 +6173,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>322</v>
+      </c>
+      <c r="F162" t="s">
         <v>323</v>
-      </c>
-      <c r="F162" t="s">
-        <v>324</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6205,10 +6202,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>324</v>
+      </c>
+      <c r="F163" t="s">
         <v>325</v>
-      </c>
-      <c r="F163" t="s">
-        <v>326</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6234,10 +6231,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>326</v>
+      </c>
+      <c r="F164" t="s">
         <v>327</v>
-      </c>
-      <c r="F164" t="s">
-        <v>328</v>
       </c>
       <c r="G164" t="n">
         <v>4</v>
@@ -6263,10 +6260,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>328</v>
+      </c>
+      <c r="F165" t="s">
         <v>329</v>
-      </c>
-      <c r="F165" t="s">
-        <v>330</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6292,10 +6289,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>330</v>
+      </c>
+      <c r="F166" t="s">
         <v>331</v>
-      </c>
-      <c r="F166" t="s">
-        <v>332</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6321,10 +6318,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>332</v>
+      </c>
+      <c r="F167" t="s">
         <v>333</v>
-      </c>
-      <c r="F167" t="s">
-        <v>334</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6350,10 +6347,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>334</v>
+      </c>
+      <c r="F168" t="s">
         <v>335</v>
-      </c>
-      <c r="F168" t="s">
-        <v>336</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6379,10 +6376,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>336</v>
+      </c>
+      <c r="F169" t="s">
         <v>337</v>
-      </c>
-      <c r="F169" t="s">
-        <v>338</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6408,10 +6405,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>338</v>
+      </c>
+      <c r="F170" t="s">
         <v>339</v>
-      </c>
-      <c r="F170" t="s">
-        <v>340</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6437,10 +6434,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>340</v>
+      </c>
+      <c r="F171" t="s">
         <v>341</v>
-      </c>
-      <c r="F171" t="s">
-        <v>342</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6466,10 +6463,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>342</v>
+      </c>
+      <c r="F172" t="s">
         <v>343</v>
-      </c>
-      <c r="F172" t="s">
-        <v>344</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6495,10 +6492,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>344</v>
+      </c>
+      <c r="F173" t="s">
         <v>345</v>
-      </c>
-      <c r="F173" t="s">
-        <v>346</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6524,10 +6521,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>346</v>
+      </c>
+      <c r="F174" t="s">
         <v>347</v>
-      </c>
-      <c r="F174" t="s">
-        <v>348</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6553,10 +6550,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>348</v>
+      </c>
+      <c r="F175" t="s">
         <v>349</v>
-      </c>
-      <c r="F175" t="s">
-        <v>350</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6582,10 +6579,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>350</v>
+      </c>
+      <c r="F176" t="s">
         <v>351</v>
-      </c>
-      <c r="F176" t="s">
-        <v>352</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6611,10 +6608,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>352</v>
+      </c>
+      <c r="F177" t="s">
         <v>353</v>
-      </c>
-      <c r="F177" t="s">
-        <v>354</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6640,10 +6637,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>354</v>
+      </c>
+      <c r="F178" t="s">
         <v>355</v>
-      </c>
-      <c r="F178" t="s">
-        <v>356</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6669,10 +6666,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>356</v>
+      </c>
+      <c r="F179" t="s">
         <v>357</v>
-      </c>
-      <c r="F179" t="s">
-        <v>358</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6698,10 +6695,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>358</v>
+      </c>
+      <c r="F180" t="s">
         <v>359</v>
-      </c>
-      <c r="F180" t="s">
-        <v>360</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -6727,10 +6724,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>360</v>
+      </c>
+      <c r="F181" t="s">
         <v>361</v>
-      </c>
-      <c r="F181" t="s">
-        <v>362</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6756,10 +6753,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>362</v>
+      </c>
+      <c r="F182" t="s">
         <v>363</v>
-      </c>
-      <c r="F182" t="s">
-        <v>364</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6785,10 +6782,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>364</v>
+      </c>
+      <c r="F183" t="s">
         <v>365</v>
-      </c>
-      <c r="F183" t="s">
-        <v>366</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6814,10 +6811,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>366</v>
+      </c>
+      <c r="F184" t="s">
         <v>367</v>
-      </c>
-      <c r="F184" t="s">
-        <v>368</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -6843,10 +6840,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>368</v>
+      </c>
+      <c r="F185" t="s">
         <v>369</v>
-      </c>
-      <c r="F185" t="s">
-        <v>370</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6872,10 +6869,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>370</v>
+      </c>
+      <c r="F186" t="s">
         <v>371</v>
-      </c>
-      <c r="F186" t="s">
-        <v>372</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6901,10 +6898,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>372</v>
+      </c>
+      <c r="F187" t="s">
         <v>373</v>
-      </c>
-      <c r="F187" t="s">
-        <v>374</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
